--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585BF295-9CCD-4D0F-839A-5FC62ED58B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB5618-0CFE-4BF1-B213-280962CB88BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1850EF4-1F1B-40A1-8527-302A6F0B4ABD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -171,9 +171,6 @@
     <t>BY</t>
   </si>
   <si>
-    <t>Rois</t>
-  </si>
-  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -193,6 +190,15 @@
   </si>
   <si>
     <t>referensi: themeforest</t>
+  </si>
+  <si>
+    <t>Arief</t>
+  </si>
+  <si>
+    <t>DIRECTORY</t>
+  </si>
+  <si>
+    <t>hospital</t>
   </si>
 </sst>
 </file>
@@ -545,30 +551,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44AD4FF-47C3-47E9-AD31-27FA36BA8346}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -576,77 +582,83 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -654,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -662,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -670,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -678,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -686,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -694,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB5618-0CFE-4BF1-B213-280962CB88BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2A1AB7-C605-426A-94D3-BC6EC030B922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1850EF4-1F1B-40A1-8527-302A6F0B4ABD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>hospital</t>
+  </si>
+  <si>
+    <t>file full page screenshot diletakkan di folder screenshot dengan nama misal hospital.jpg</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +668,9 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\html-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2A1AB7-C605-426A-94D3-BC6EC030B922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808F8273-E609-43D2-BD28-AF2BA82D373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1850EF4-1F1B-40A1-8527-302A6F0B4ABD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F1850EF4-1F1B-40A1-8527-302A6F0B4ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>file full page screenshot diletakkan di folder screenshot dengan nama misal hospital.jpg</t>
+  </si>
+  <si>
+    <t>plumber</t>
+  </si>
+  <si>
+    <t>Krisna</t>
   </si>
 </sst>
 </file>
@@ -556,28 +562,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44AD4FF-47C3-47E9-AD31-27FA36BA8346}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -597,7 +603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -608,7 +614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -619,7 +625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -639,7 +645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -650,7 +656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -661,7 +667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -672,7 +678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -680,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -688,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -696,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -704,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -712,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -720,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -728,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -736,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -744,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -752,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -760,7 +766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -768,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -776,15 +782,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -792,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -800,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -808,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -816,7 +831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -824,7 +839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -832,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -840,7 +855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -848,7 +863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -856,7 +871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -864,7 +879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -872,7 +887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -880,7 +895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -888,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -896,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -904,7 +919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -912,7 +927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -920,7 +935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -928,7 +943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -936,7 +951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -944,7 +959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -952,7 +967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808F8273-E609-43D2-BD28-AF2BA82D373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBA4F4B-552E-4B59-807F-34AB2C3168EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F1850EF4-1F1B-40A1-8527-302A6F0B4ABD}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{F1850EF4-1F1B-40A1-8527-302A6F0B4ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Krisna</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>Farid</t>
   </si>
 </sst>
 </file>
@@ -562,28 +568,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44AD4FF-47C3-47E9-AD31-27FA36BA8346}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -603,7 +609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -614,7 +620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -625,7 +631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -645,7 +651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -656,7 +662,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -667,7 +673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -678,7 +684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -686,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -694,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -702,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -710,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -718,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -726,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -734,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -742,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -750,7 +756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -758,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -766,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -774,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -782,7 +788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -799,7 +805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -807,7 +813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -815,7 +821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -823,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -831,7 +837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -839,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -847,15 +853,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -863,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -871,7 +886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -879,7 +894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
@@ -887,7 +902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -895,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -903,7 +918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -911,7 +926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -919,7 +934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -927,7 +942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -935,7 +950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -943,7 +958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -951,7 +966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -959,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -967,7 +982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBA4F4B-552E-4B59-807F-34AB2C3168EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{F1850EF4-1F1B-40A1-8527-302A6F0B4ABD}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -214,12 +213,18 @@
   </si>
   <si>
     <t>Farid</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>Roiis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44AD4FF-47C3-47E9-AD31-27FA36BA8346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,6 +632,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" t="s">
         <v>51</v>
       </c>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D4120-2748-4028-8A7B-593E7094DD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -219,12 +220,33 @@
   </si>
   <si>
     <t>Roiis</t>
+  </si>
+  <si>
+    <t>event organizer</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Farhan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,11 +592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,6 +643,15 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" t="s">
         <v>50</v>
       </c>
@@ -672,6 +703,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" t="s">
         <v>53</v>
       </c>
@@ -683,6 +723,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
       <c r="G9" t="s">
         <v>54</v>
       </c>
@@ -694,6 +743,15 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
       <c r="G10" t="s">
         <v>58</v>
       </c>
@@ -705,6 +763,15 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -744,6 +811,15 @@
       </c>
       <c r="B16" t="s">
         <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\html-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D4120-2748-4028-8A7B-593E7094DD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -241,12 +240,21 @@
   </si>
   <si>
     <t>Farhan</t>
+  </si>
+  <si>
+    <t>showroom</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>listing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,6 +788,15 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -788,6 +805,15 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -795,6 +821,15 @@
       </c>
       <c r="B14" t="s">
         <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B66AEFE-FF48-4B7A-82A1-4DDC66302BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,10 +601,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="94" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B66AEFE-FF48-4B7A-82A1-4DDC66302BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47F090D-1FF9-4753-89ED-417C8C867012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -250,6 +250,75 @@
   </si>
   <si>
     <t>listing</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>machinery</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>renovation</t>
+  </si>
+  <si>
+    <t>contractor</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>manufacturing</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>landing page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krisna </t>
+  </si>
+  <si>
+    <t>real estate</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>consulting</t>
+  </si>
+  <si>
+    <t>startup</t>
+  </si>
+  <si>
+    <t>ecommerce</t>
+  </si>
+  <si>
+    <t>industrial</t>
   </si>
 </sst>
 </file>
@@ -604,28 +673,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -645,7 +714,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -665,7 +734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -685,7 +754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -705,7 +774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -725,7 +794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -745,7 +814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -765,7 +834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -782,7 +851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -799,7 +868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -816,7 +885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -833,7 +902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -841,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -858,7 +927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -866,7 +935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -874,7 +943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -882,7 +951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -890,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -898,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -906,15 +975,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -931,55 +1009,103 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -996,124 +1122,169 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47F090D-1FF9-4753-89ED-417C8C867012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B592620-9598-4DF4-A097-58140556E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -674,7 +674,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,6 +1104,12 @@
       <c r="C30" t="s">
         <v>81</v>
       </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B592620-9598-4DF4-A097-58140556E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C439D-0717-4548-A182-F81726A22974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>industrial</t>
+  </si>
+  <si>
+    <t>Fahri</t>
   </si>
 </sst>
 </file>
@@ -673,28 +676,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -714,7 +717,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -734,7 +737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -754,7 +757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -774,7 +777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -794,7 +797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -814,7 +817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -834,7 +837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -851,7 +854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -868,7 +871,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -885,7 +888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -902,7 +905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -910,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -927,7 +930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -935,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -943,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -951,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -959,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -967,7 +970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -975,7 +978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -992,7 +995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1138,8 +1141,14 @@
       <c r="C32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1149,8 +1158,14 @@
       <c r="C33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1160,8 +1175,14 @@
       <c r="C34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1171,8 +1192,14 @@
       <c r="C35" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1182,8 +1209,14 @@
       <c r="C36" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1193,8 +1226,14 @@
       <c r="C37" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1205,7 +1244,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1216,7 +1255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1227,7 +1266,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1238,7 +1277,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1249,7 +1288,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1260,7 +1299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1271,7 +1310,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1282,7 +1321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
@@ -1291,6 +1330,12 @@
       </c>
       <c r="C46" t="s">
         <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C439D-0717-4548-A182-F81726A22974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -322,12 +321,33 @@
   </si>
   <si>
     <t>Fahri</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>painter</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>commersial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,11 +693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F40" sqref="F39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,6 +932,15 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -937,6 +966,15 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -945,6 +983,15 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -953,6 +1000,15 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -961,6 +1017,15 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -969,6 +1034,15 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -977,6 +1051,15 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -1242,6 +1325,12 @@
       </c>
       <c r="C38" t="s">
         <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF43D5EC-2462-4233-99E6-D10853B883AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -693,10 +694,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="94" workbookViewId="0">
       <selection activeCell="F40" sqref="F39:F40"/>
     </sheetView>
   </sheetViews>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF43D5EC-2462-4233-99E6-D10853B883AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88570EF6-193B-4646-993B-799AFAA51E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>commersial</t>
+  </si>
+  <si>
+    <t>Prosess</t>
   </si>
 </sst>
 </file>
@@ -698,27 +701,27 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F40" sqref="F39:F40"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -738,7 +741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -758,7 +761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -778,7 +781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -798,7 +801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -818,7 +821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -838,7 +841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -858,7 +861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -875,7 +878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -892,7 +895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -909,7 +912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -926,7 +929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -943,7 +946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -960,7 +963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -977,7 +980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -994,7 +997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1195,10 +1198,10 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88570EF6-193B-4646-993B-799AFAA51E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1076D344-C85B-459D-9365-903C3703EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>commersial</t>
-  </si>
-  <si>
-    <t>Prosess</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1195,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/Business Category List.xlsx
+++ b/Business Category List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1076D344-C85B-459D-9365-903C3703EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30DDC69-DFB0-40FD-8EAA-69C05EB13B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>Event Organizer</t>
   </si>
@@ -697,28 +697,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="105" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -738,7 +738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -758,7 +758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -778,7 +778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -818,7 +818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -838,7 +838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -858,7 +858,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -875,7 +875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -892,7 +892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -909,7 +909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -926,7 +926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -943,7 +943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -960,7 +960,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -994,7 +994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1344,8 +1344,14 @@
       <c r="C39" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1355,8 +1361,14 @@
       <c r="C40" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -1366,8 +1378,14 @@
       <c r="C41" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1377,8 +1395,14 @@
       <c r="C42" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1388,8 +1412,14 @@
       <c r="C43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1399,8 +1429,14 @@
       <c r="C44" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -1410,8 +1446,14 @@
       <c r="C45" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
